--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224317.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220317.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 09:43:03</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 11:03:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220317.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224017.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 11:03:03</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 11:40:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224017.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225417.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 11:40:47</t>
+    <t>Informação extraída do SIGBM: 17/12/2022 - 11:54:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225417.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220318.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 17/12/2022 - 11:54:40</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 12:03:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220318.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222418.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 12:03:27</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 12:24:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222418.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223218.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 12:24:14</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 12:32:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223218.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224118.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 12:32:55</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 12:41:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224118.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225018.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 12:41:48</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 12:50:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225018.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225918.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 12:50:47</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 12:59:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225918.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221818.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 12:59:12</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 01:18:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221818.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223518.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 01:18:56</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 01:35:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223518.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224518.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 01:35:05</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 01:45:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224518.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225318.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 01:45:26</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 01:53:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225318.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220318.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 01:53:22</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 02:03:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220318.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222018.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 02:03:02</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 02:20:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222018.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222918.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 02:20:07</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 02:29:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222918.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223818.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 02:29:34</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 02:38:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223818.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224818.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 02:38:42</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 02:48:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224818.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225618.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 02:48:03</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 02:56:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225618.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221218.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 02:56:31</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 03:12:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221218.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223118.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 03:12:47</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 03:31:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223118.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224118.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 03:31:01</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 03:41:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224118.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225118.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 03:41:32</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 03:51:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225118.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220018.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 03:51:41</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 04:00:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220018.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221518.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 04:00:14</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 04:15:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221518.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222518.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 04:15:15</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 04:25:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222518.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223418.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 04:25:25</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 04:34:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223418.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224318.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 04:34:30</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 04:43:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224318.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225318.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 04:43:40</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 04:53:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225318.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220018.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 04:53:23</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 05:00:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220018.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222318.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 05:00:59</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 05:23:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222318.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223418.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 05:23:41</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 05:34:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223418.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224518.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 05:34:33</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 05:45:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224518.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225218.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 05:45:06</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 05:52:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225218.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220118.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 05:52:54</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 06:01:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220118.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221818.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 06:01:41</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 06:18:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221818.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222818.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 06:18:47</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 06:28:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222818.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223818.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 06:28:05</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 06:38:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223818.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224618.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 06:38:03</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 06:46:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224618.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225518.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 06:46:39</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 06:55:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225518.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220818.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 06:55:42</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 07:08:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220818.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222618.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 07:08:35</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 07:26:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222618.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223518.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 07:26:27</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 07:35:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223518.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224418.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 07:35:15</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 07:44:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224418.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225318.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 07:44:01</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 07:53:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225318.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220218.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 07:53:15</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 08:02:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220218.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221718.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 08:02:36</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 08:17:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221718.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222618.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 08:17:14</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 08:26:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222618.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223518.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 08:26:32</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 08:35:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223518.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224418.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 08:35:17</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 08:44:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224418.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225318.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 08:44:01</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 08:53:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225318.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220118.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 08:53:14</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 09:01:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220118.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223418.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 09:01:47</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 09:34:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223418.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225718.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 09:34:59</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 09:57:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225718.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221518.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 09:57:21</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 10:15:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221518.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222918.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 10:15:28</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 10:29:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222918.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223918.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 10:29:54</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 10:39:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223918.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224718.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 10:39:06</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 10:47:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224718.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225618.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 10:47:34</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 10:56:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225618.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220918.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 10:56:55</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 11:09:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220918.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222318.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 11:09:53</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 11:23:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222318.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223218.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 11:23:28</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 11:32:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223218.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224118.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 11:32:35</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 11:41:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224118.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225118.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 11:41:10</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 11:51:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225118.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225918.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 11:51:18</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 11:59:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225918.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221518.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 11:59:24</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 12:15:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221518.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222718.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 12:15:26</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 12:27:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222718.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223718.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 12:27:56</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 12:37:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223718.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224618.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 12:37:16</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 12:46:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224618.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225418.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 12:46:49</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 12:54:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225418.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221018.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 12:54:58</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 01:10:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221018.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223318.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 01:10:26</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 01:33:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223318.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224718.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 01:33:24</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 01:47:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224718.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225618.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 01:47:39</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 01:56:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225618.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220918.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 01:56:17</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 02:09:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220918.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222318.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 02:09:48</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 02:23:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222318.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223318.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 02:23:59</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 02:33:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223318.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224118.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 02:33:06</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 02:41:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224118.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225118.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 02:41:50</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 02:51:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225118.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225918.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 02:51:23</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 02:59:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225918.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222018.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 02:59:54</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 03:20:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222018.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223318.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 03:20:09</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 03:33:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223318.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224218.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 03:33:10</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 03:42:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224218.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225118.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 03:42:55</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 03:51:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225118.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220018.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 03:51:23</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 04:00:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220018.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221418.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 04:00:15</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 04:14:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221418.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222318.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 04:14:42</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 04:23:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222318.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223218.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 04:23:28</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 04:32:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223218.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224118.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 04:32:14</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 04:41:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224118.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225118.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 04:41:49</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 04:51:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225118.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225818.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 04:51:01</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 04:58:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225818.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221518.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 04:58:44</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 05:15:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221518.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222818.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 05:15:32</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 05:28:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222818.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223718.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 05:28:16</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 05:37:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223718.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224718.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 05:37:51</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 05:47:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224718.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225618.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 05:47:11</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 05:56:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225618.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220918.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 05:56:16</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 06:09:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220918.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222118.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 06:09:02</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 06:21:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222118.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223018.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 06:21:44</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 06:30:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223018.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223918.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 06:30:30</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 06:39:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223918.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224818.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 06:39:46</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 06:48:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224818.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225718.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 06:48:04</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 06:57:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225718.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221118.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 06:57:13</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 07:11:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221118.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222618.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 07:11:05</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 07:26:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222618.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223518.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 07:26:49</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 07:35:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223518.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224418.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 07:35:20</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 07:44:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224418.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225318.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 07:44:21</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 07:53:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225318.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220118.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 07:53:11</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 08:01:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220118.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222018.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 08:01:59</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 08:20:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222018.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223018.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 08:20:57</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 08:30:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223018.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224018.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 08:30:07</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 08:40:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224018.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224818.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 08:40:02</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 08:48:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-18.xlsx
+++ b/sigbm_download_2022-12-18.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224818.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225718.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 18/12/2022 - 08:48:24</t>
+    <t>Informação extraída do SIGBM: 18/12/2022 - 08:57:06</t>
   </si>
   <si>
     <t>ID Barragem</t>
